--- a/output/NHANES_2007-2008.xlsx
+++ b/output/NHANES_2007-2008.xlsx
@@ -25,7 +25,7 @@
     <t>RIDAGEYR</t>
   </si>
   <si>
-    <t>DMQMILIT</t>
+    <t>Military</t>
   </si>
   <si>
     <t>AUXU500R</t>
@@ -70,13 +70,13 @@
     <t>AUXU8KL</t>
   </si>
   <si>
-    <t>AUQ131</t>
-  </si>
-  <si>
-    <t>AUQ191</t>
-  </si>
-  <si>
-    <t>AUQ290</t>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
